--- a/半监督.xlsx
+++ b/半监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangchar/Documents/Study/Python应用开发/python-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877A9168-C01E-F94E-B7E0-815DF6675B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73F03E-A39B-A342-8E94-F10D71485821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22480" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マカ錬金 幽玄 -ZH" sheetId="1" r:id="rId1"/>
@@ -711,9 +711,9 @@
   </sheetPr>
   <dimension ref="A1:G2701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1501" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -11971,7 +11971,7 @@
         <v>11</v>
       </c>
       <c r="G504" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:7" ht="13">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="G510" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:7" ht="13">
@@ -12189,7 +12189,7 @@
         <v>11</v>
       </c>
       <c r="G514" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:7" ht="13">
@@ -12258,7 +12258,7 @@
         <v>3</v>
       </c>
       <c r="G517" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:7" ht="13">
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="G519" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:7" ht="13">
@@ -12344,7 +12344,7 @@
         <v>2</v>
       </c>
       <c r="G521" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:7" ht="13">
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="G526" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:7" ht="13">
@@ -12614,7 +12614,7 @@
         <v>11</v>
       </c>
       <c r="G533" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:7" ht="13">
@@ -12838,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="G543" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:7" ht="13">
@@ -12884,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="G545" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="13">
@@ -12930,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="G547" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="13">
@@ -13045,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="G552" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="13">
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="13">
@@ -13194,7 +13194,7 @@
         <v>2</v>
       </c>
       <c r="G559" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="13">
@@ -13257,7 +13257,7 @@
         <v>111</v>
       </c>
       <c r="G562" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="13">
@@ -13280,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="G563" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="13">
@@ -13349,7 +13349,7 @@
         <v>21</v>
       </c>
       <c r="G566" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:7" ht="13">
@@ -13550,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:7" ht="13">
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:7" ht="13">
@@ -13665,7 +13665,7 @@
         <v>11</v>
       </c>
       <c r="G580" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:7" ht="13">
@@ -13757,7 +13757,7 @@
         <v>11</v>
       </c>
       <c r="G584" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:7" ht="13">
@@ -13780,7 +13780,7 @@
         <v>3</v>
       </c>
       <c r="G585" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:7" ht="13">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="G586" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:7" ht="13">
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="G588" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:7" ht="13">
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="G593" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:7" ht="13">
@@ -14015,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="G596" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597" spans="1:7" ht="13">
@@ -14061,7 +14061,7 @@
         <v>3</v>
       </c>
       <c r="G598" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:7" ht="13">
@@ -14589,7 +14589,7 @@
         <v>11</v>
       </c>
       <c r="G622" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:7" ht="13">
@@ -14859,7 +14859,7 @@
         <v>21</v>
       </c>
       <c r="G634" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:7" ht="13">
@@ -14945,7 +14945,7 @@
         <v>3</v>
       </c>
       <c r="G638" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="13">
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="G639" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:7" ht="13">
@@ -14985,7 +14985,7 @@
         <v>11</v>
       </c>
       <c r="G640" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:7" ht="13">
@@ -15008,7 +15008,7 @@
         <v>3</v>
       </c>
       <c r="G641" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:7" ht="13">
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="G644" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:7" ht="13">
@@ -15123,7 +15123,7 @@
         <v>3</v>
       </c>
       <c r="G646" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:7" ht="13">
@@ -15192,7 +15192,7 @@
         <v>21</v>
       </c>
       <c r="G649" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:7" ht="13">
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="G650" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:7" ht="13">
@@ -15393,7 +15393,7 @@
         <v>11</v>
       </c>
       <c r="G658" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:7" ht="13">
@@ -15416,7 +15416,7 @@
         <v>11</v>
       </c>
       <c r="G659" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:7" ht="13">
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="G660" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:7" ht="13">
@@ -15462,7 +15462,7 @@
         <v>111</v>
       </c>
       <c r="G661" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:7" ht="13">
@@ -15485,7 +15485,7 @@
         <v>11</v>
       </c>
       <c r="G662" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:7" ht="13">
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="G666" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:7" ht="13">
@@ -15784,7 +15784,7 @@
         <v>2</v>
       </c>
       <c r="G675" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:7" ht="13">
@@ -15985,7 +15985,7 @@
         <v>111</v>
       </c>
       <c r="G684" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:7" ht="13">
@@ -16123,7 +16123,7 @@
         <v>31</v>
       </c>
       <c r="G690" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:7" ht="13">
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="G701" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:7" ht="13">
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="G702" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:7" ht="13">
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="G709" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:7" ht="13">
@@ -16818,7 +16818,7 @@
         <v>3</v>
       </c>
       <c r="G721" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:7" ht="13">
@@ -16841,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:7" ht="13">
@@ -16904,7 +16904,7 @@
         <v>31</v>
       </c>
       <c r="G725" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:7" ht="13">
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="G731" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:7" ht="13">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:7" ht="13">
@@ -17294,7 +17294,7 @@
         <v>21</v>
       </c>
       <c r="G743" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:7" ht="13">
@@ -17639,7 +17639,7 @@
         <v>21</v>
       </c>
       <c r="G758" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:7" ht="13">
@@ -17909,7 +17909,7 @@
         <v>21</v>
       </c>
       <c r="G770" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:7" ht="13">
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="G771" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:7" ht="13">
@@ -17978,7 +17978,7 @@
         <v>21</v>
       </c>
       <c r="G773" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774" spans="1:7" ht="13">
@@ -18047,7 +18047,7 @@
         <v>22</v>
       </c>
       <c r="G776" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="1:7" ht="13">
@@ -18070,7 +18070,7 @@
         <v>2</v>
       </c>
       <c r="G777" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:7" ht="13">
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="G795" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:7" ht="13">
@@ -18633,7 +18633,7 @@
         <v>21</v>
       </c>
       <c r="G802" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:7" ht="13">
@@ -18725,7 +18725,7 @@
         <v>21</v>
       </c>
       <c r="G806" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:7" ht="13">
@@ -18748,7 +18748,7 @@
         <v>21</v>
       </c>
       <c r="G807" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:7" ht="13">
@@ -18805,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="G810" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:7" ht="13">
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="G814" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:7" ht="13">
@@ -19029,7 +19029,7 @@
         <v>0</v>
       </c>
       <c r="G820" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:7" ht="13">
@@ -19075,7 +19075,7 @@
         <v>11</v>
       </c>
       <c r="G822" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:7" ht="13">
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="G823" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:7" ht="13">
@@ -19161,7 +19161,7 @@
         <v>31</v>
       </c>
       <c r="G826" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:7" ht="13">
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="G829" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:7" ht="13">
@@ -19299,7 +19299,7 @@
         <v>31</v>
       </c>
       <c r="G832" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:7" ht="13">
@@ -19362,7 +19362,7 @@
         <v>21</v>
       </c>
       <c r="G835" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:7" ht="13">
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="G841" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:7" ht="13">
@@ -19672,7 +19672,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:7" ht="13">
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:7" ht="13">
@@ -19850,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:7" ht="13">
@@ -19873,7 +19873,7 @@
         <v>21</v>
       </c>
       <c r="G858" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:7" ht="13">
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="G860" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:7" ht="13">
@@ -19936,7 +19936,7 @@
         <v>111</v>
       </c>
       <c r="G861" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:7" ht="13">
@@ -20051,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="G866" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:7" ht="13">
@@ -20074,7 +20074,7 @@
         <v>3</v>
       </c>
       <c r="G867" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:7" ht="13">
@@ -20097,7 +20097,7 @@
         <v>3</v>
       </c>
       <c r="G868" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:7" ht="13">
@@ -20212,7 +20212,7 @@
         <v>31</v>
       </c>
       <c r="G873" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:7" ht="13">
@@ -20281,7 +20281,7 @@
         <v>21</v>
       </c>
       <c r="G876" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:7" ht="13">
@@ -20373,7 +20373,7 @@
         <v>1</v>
       </c>
       <c r="G880" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:7" ht="13">
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:7" ht="13">
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="G884" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:7" ht="13">
@@ -20482,7 +20482,7 @@
         <v>2</v>
       </c>
       <c r="G885" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:7" ht="13">
@@ -20528,7 +20528,7 @@
         <v>31</v>
       </c>
       <c r="G887" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:7" ht="13">
@@ -20614,7 +20614,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:7" ht="13">
@@ -20660,7 +20660,7 @@
         <v>21</v>
       </c>
       <c r="G893" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:7" ht="13">
@@ -20683,7 +20683,7 @@
         <v>3</v>
       </c>
       <c r="G894" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:7" ht="13">
@@ -20775,7 +20775,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:7" ht="13">
@@ -20821,7 +20821,7 @@
         <v>0</v>
       </c>
       <c r="G900" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:7" ht="13">
@@ -20844,7 +20844,7 @@
         <v>3</v>
       </c>
       <c r="G901" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:7" ht="13">
@@ -20959,7 +20959,7 @@
         <v>21</v>
       </c>
       <c r="G906" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:7" ht="13">
@@ -20982,7 +20982,7 @@
         <v>31</v>
       </c>
       <c r="G907" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:7" ht="13">
@@ -21051,7 +21051,7 @@
         <v>0</v>
       </c>
       <c r="G910" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:7" ht="13">
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="G913" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:7" ht="13">
@@ -21137,7 +21137,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:7" ht="13">
@@ -21160,7 +21160,7 @@
         <v>3</v>
       </c>
       <c r="G915" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:7" ht="13">
@@ -21183,7 +21183,7 @@
         <v>0</v>
       </c>
       <c r="G916" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:7" ht="13">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="G926" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:7" ht="13">
@@ -21418,7 +21418,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:7" ht="13">
@@ -21533,7 +21533,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="13">
@@ -21556,7 +21556,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:7" ht="13">
@@ -21895,7 +21895,7 @@
         <v>2</v>
       </c>
       <c r="G948" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:7" ht="13">
@@ -21969,7 +21969,7 @@
         <v>1</v>
       </c>
       <c r="G952" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:7" ht="13">
@@ -21992,7 +21992,7 @@
         <v>2</v>
       </c>
       <c r="G953" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:7" ht="13">
@@ -22268,7 +22268,7 @@
         <v>3</v>
       </c>
       <c r="G965" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:7" ht="13">
@@ -22291,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="G966" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:7" ht="13">
@@ -22360,7 +22360,7 @@
         <v>3</v>
       </c>
       <c r="G969" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:7" ht="13">
@@ -22406,7 +22406,7 @@
         <v>11</v>
       </c>
       <c r="G971" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:7" ht="13">
@@ -22429,7 +22429,7 @@
         <v>22</v>
       </c>
       <c r="G972" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:7" ht="13">
@@ -22452,7 +22452,7 @@
         <v>3</v>
       </c>
       <c r="G973" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:7" ht="13">
@@ -22498,7 +22498,7 @@
         <v>3</v>
       </c>
       <c r="G975" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:7" ht="13">
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="G980" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:7" ht="13">
@@ -22676,7 +22676,7 @@
         <v>21</v>
       </c>
       <c r="G983" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:7" ht="13">
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="G985" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:7" ht="13">
@@ -22745,7 +22745,7 @@
         <v>11</v>
       </c>
       <c r="G986" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:7" ht="13">
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="G995" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:7" ht="13">
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="G997" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:7" ht="13">
@@ -23043,7 +23043,7 @@
         <v>111</v>
       </c>
       <c r="G1000" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:7" ht="13">
@@ -23066,7 +23066,7 @@
         <v>21</v>
       </c>
       <c r="G1001" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:7" ht="13">
@@ -23227,7 +23227,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:7" ht="13">
@@ -23290,7 +23290,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:7" ht="13">
@@ -23359,7 +23359,7 @@
         <v>2</v>
       </c>
       <c r="G1014" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:7" ht="13">
@@ -23382,7 +23382,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:7" ht="13">
@@ -23399,7 +23399,7 @@
         <v>2</v>
       </c>
       <c r="G1016" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:7" ht="13">
@@ -23606,7 +23606,7 @@
         <v>3</v>
       </c>
       <c r="G1025" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:7" ht="13">
@@ -23715,7 +23715,7 @@
         <v>3</v>
       </c>
       <c r="G1030" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:7" ht="13">
@@ -23761,7 +23761,7 @@
         <v>21</v>
       </c>
       <c r="G1032" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:7" ht="13">
@@ -23853,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="G1036" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:7" ht="13">
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="G1037" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:7" ht="13">
@@ -24002,7 +24002,7 @@
         <v>21</v>
       </c>
       <c r="G1043" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:7" ht="13">
@@ -24134,7 +24134,7 @@
         <v>2</v>
       </c>
       <c r="G1049" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:7" ht="13">
@@ -24295,7 +24295,7 @@
         <v>21</v>
       </c>
       <c r="G1056" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:7" ht="13">
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="G1064" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:7" ht="13">
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="G1068" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:7" ht="13">
@@ -24656,7 +24656,7 @@
         <v>0</v>
       </c>
       <c r="G1073" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:7" ht="13">
@@ -24679,7 +24679,7 @@
         <v>21</v>
       </c>
       <c r="G1074" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:7" ht="13">
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="G1075" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:7" ht="13">
@@ -24817,7 +24817,7 @@
         <v>3</v>
       </c>
       <c r="G1080" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:7" ht="13">
@@ -24840,7 +24840,7 @@
         <v>211</v>
       </c>
       <c r="G1081" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:7" ht="13">
@@ -24886,7 +24886,7 @@
         <v>11</v>
       </c>
       <c r="G1083" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:7" ht="13">
@@ -24932,7 +24932,7 @@
         <v>32</v>
       </c>
       <c r="G1085" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1086" spans="1:7" ht="13">
@@ -25024,7 +25024,7 @@
         <v>0</v>
       </c>
       <c r="G1089" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:7" ht="13">
@@ -25231,7 +25231,7 @@
         <v>21</v>
       </c>
       <c r="G1098" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:7" ht="13">
@@ -25300,7 +25300,7 @@
         <v>1</v>
       </c>
       <c r="G1101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:7" ht="13">
@@ -25357,7 +25357,7 @@
         <v>1</v>
       </c>
       <c r="G1104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:7" ht="13">
@@ -25380,7 +25380,7 @@
         <v>2</v>
       </c>
       <c r="G1105" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:7" ht="13">
@@ -25512,7 +25512,7 @@
         <v>11</v>
       </c>
       <c r="G1111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:7" ht="13">
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
       <c r="G1114" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1115" spans="1:7" ht="13">
@@ -25598,7 +25598,7 @@
         <v>11</v>
       </c>
       <c r="G1115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:7" ht="13">
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="G1117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:7" ht="13">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="G1118" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:7" ht="13">
@@ -25799,7 +25799,7 @@
         <v>3</v>
       </c>
       <c r="G1124" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:7" ht="13">
@@ -25822,7 +25822,7 @@
         <v>2</v>
       </c>
       <c r="G1125" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:7" ht="13">
@@ -25845,7 +25845,7 @@
         <v>2</v>
       </c>
       <c r="G1126" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1127" spans="1:7" ht="13">
@@ -25977,7 +25977,7 @@
         <v>1</v>
       </c>
       <c r="G1132" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:7" ht="13">
@@ -26000,7 +26000,7 @@
         <v>1</v>
       </c>
       <c r="G1133" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:7" ht="13">
@@ -26046,7 +26046,7 @@
         <v>21</v>
       </c>
       <c r="G1135" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:7" ht="13">
@@ -26115,7 +26115,7 @@
         <v>32</v>
       </c>
       <c r="G1138" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1139" spans="1:7" ht="13">
@@ -26287,7 +26287,7 @@
         <v>11</v>
       </c>
       <c r="G1146" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="13">
@@ -26379,7 +26379,7 @@
         <v>11</v>
       </c>
       <c r="G1150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:7" ht="13">
@@ -26494,7 +26494,7 @@
         <v>1</v>
       </c>
       <c r="G1155" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:7" ht="13">
@@ -26563,7 +26563,7 @@
         <v>31</v>
       </c>
       <c r="G1158" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:7" ht="13">
@@ -26626,7 +26626,7 @@
         <v>1</v>
       </c>
       <c r="G1161" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:7" ht="13">
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="G1162" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:7" ht="13">
@@ -26695,7 +26695,7 @@
         <v>11</v>
       </c>
       <c r="G1164" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:7" ht="13">
@@ -26804,7 +26804,7 @@
         <v>11</v>
       </c>
       <c r="G1169" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1170" spans="1:7" ht="13">
@@ -26827,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="G1170" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:7" ht="13">
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="G1171" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:7" ht="13">
@@ -26959,7 +26959,7 @@
         <v>1</v>
       </c>
       <c r="G1176" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:7" ht="13">
@@ -27005,7 +27005,7 @@
         <v>211</v>
       </c>
       <c r="G1178" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:7" ht="13">
@@ -27074,7 +27074,7 @@
         <v>1</v>
       </c>
       <c r="G1181" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:7" ht="13">
@@ -27120,7 +27120,7 @@
         <v>1</v>
       </c>
       <c r="G1183" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:7" ht="13">
@@ -27166,7 +27166,7 @@
         <v>22</v>
       </c>
       <c r="G1185" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1186" spans="1:7" ht="13">
@@ -27258,7 +27258,7 @@
         <v>3</v>
       </c>
       <c r="G1189" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:7" ht="13">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="G1193" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:7" ht="13">
@@ -27396,7 +27396,7 @@
         <v>3</v>
       </c>
       <c r="G1195" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:7" ht="13">
@@ -27442,7 +27442,7 @@
         <v>1</v>
       </c>
       <c r="G1197" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:7" ht="13">
@@ -27488,7 +27488,7 @@
         <v>3</v>
       </c>
       <c r="G1199" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:7" ht="13">
@@ -27511,7 +27511,7 @@
         <v>11</v>
       </c>
       <c r="G1200" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:7" ht="13">
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="G1205" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:7" ht="13">
@@ -27717,7 +27717,7 @@
         <v>0</v>
       </c>
       <c r="G1210" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:7" ht="13">
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="G1214" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:7" ht="13">
@@ -27832,7 +27832,7 @@
         <v>2</v>
       </c>
       <c r="G1215" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:7" ht="13">
@@ -27855,7 +27855,7 @@
         <v>1</v>
       </c>
       <c r="G1216" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:7" ht="13">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="G1220" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:7" ht="13">
@@ -28004,7 +28004,7 @@
         <v>11</v>
       </c>
       <c r="G1223" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:7" ht="13">
@@ -28067,7 +28067,7 @@
         <v>21</v>
       </c>
       <c r="G1226" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:7" ht="13">
@@ -28297,7 +28297,7 @@
         <v>11</v>
       </c>
       <c r="G1236" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:7" ht="13">
@@ -28366,7 +28366,7 @@
         <v>31</v>
       </c>
       <c r="G1239" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:7" ht="13">
@@ -28504,7 +28504,7 @@
         <v>0</v>
       </c>
       <c r="G1245" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1246" spans="1:7" ht="13">
@@ -28642,7 +28642,7 @@
         <v>0</v>
       </c>
       <c r="G1251" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:7" ht="13">
@@ -28820,7 +28820,7 @@
         <v>0</v>
       </c>
       <c r="G1259" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1260" spans="1:7" ht="13">
@@ -28998,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="G1267" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1268" spans="1:7" ht="13">
@@ -29130,7 +29130,7 @@
         <v>21</v>
       </c>
       <c r="G1273" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:7" ht="13">
@@ -29153,7 +29153,7 @@
         <v>211</v>
       </c>
       <c r="G1274" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:7" ht="13">
@@ -29176,7 +29176,7 @@
         <v>11</v>
       </c>
       <c r="G1275" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:7" ht="13">
@@ -29199,7 +29199,7 @@
         <v>11</v>
       </c>
       <c r="G1276" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1277" spans="1:7" ht="13">
@@ -29291,7 +29291,7 @@
         <v>21</v>
       </c>
       <c r="G1280" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:7" ht="13">
@@ -29406,7 +29406,7 @@
         <v>21</v>
       </c>
       <c r="G1285" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286" spans="1:7" ht="13">
@@ -29429,7 +29429,7 @@
         <v>111</v>
       </c>
       <c r="G1286" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:7" ht="13">
@@ -29452,7 +29452,7 @@
         <v>1</v>
       </c>
       <c r="G1287" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:7" ht="13">
@@ -29498,7 +29498,7 @@
         <v>1</v>
       </c>
       <c r="G1289" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:7" ht="13">
@@ -29590,7 +29590,7 @@
         <v>21</v>
       </c>
       <c r="G1293" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294" spans="1:7" ht="13">
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="G1296" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297" spans="1:7" ht="13">
@@ -29745,7 +29745,7 @@
         <v>21</v>
       </c>
       <c r="G1300" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:7" ht="13">
@@ -29768,7 +29768,7 @@
         <v>1</v>
       </c>
       <c r="G1301" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:7" ht="13">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="G1304" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:7" ht="13">
@@ -30015,7 +30015,7 @@
         <v>3</v>
       </c>
       <c r="G1312" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:7" ht="13">
@@ -30061,7 +30061,7 @@
         <v>0</v>
       </c>
       <c r="G1314" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:7" ht="13">
@@ -30084,7 +30084,7 @@
         <v>3</v>
       </c>
       <c r="G1315" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:7" ht="13">
@@ -30130,7 +30130,7 @@
         <v>21</v>
       </c>
       <c r="G1317" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:7" ht="13">
@@ -30199,7 +30199,7 @@
         <v>11</v>
       </c>
       <c r="G1320" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:7" ht="13">
@@ -30222,7 +30222,7 @@
         <v>21</v>
       </c>
       <c r="G1321" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1322" spans="1:7" ht="13">
@@ -30360,7 +30360,7 @@
         <v>3</v>
       </c>
       <c r="G1327" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328" spans="1:7" ht="13">
@@ -30406,7 +30406,7 @@
         <v>21</v>
       </c>
       <c r="G1329" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330" spans="1:7" ht="13">
@@ -30469,7 +30469,7 @@
         <v>21</v>
       </c>
       <c r="G1332" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1333" spans="1:7" ht="13">
@@ -30555,7 +30555,7 @@
         <v>21</v>
       </c>
       <c r="G1336" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:7" ht="13">
@@ -30578,7 +30578,7 @@
         <v>21</v>
       </c>
       <c r="G1337" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:7" ht="13">
@@ -30595,7 +30595,7 @@
         <v>0</v>
       </c>
       <c r="G1338" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1339" spans="1:7" ht="13">
@@ -30664,7 +30664,7 @@
         <v>21</v>
       </c>
       <c r="G1341" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:7" ht="13">
@@ -30687,7 +30687,7 @@
         <v>0</v>
       </c>
       <c r="G1342" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:7" ht="13">
@@ -30733,7 +30733,7 @@
         <v>1</v>
       </c>
       <c r="G1344" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:7" ht="13">
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="G1346" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1347" spans="1:7" ht="13">
@@ -30825,7 +30825,7 @@
         <v>11</v>
       </c>
       <c r="G1348" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349" spans="1:7" ht="13">
@@ -30848,7 +30848,7 @@
         <v>0</v>
       </c>
       <c r="G1349" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1350" spans="1:7" ht="13">
@@ -30871,7 +30871,7 @@
         <v>31</v>
       </c>
       <c r="G1350" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1351" spans="1:7" ht="13">
@@ -30986,7 +30986,7 @@
         <v>21</v>
       </c>
       <c r="G1355" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1356" spans="1:7" ht="13">
@@ -31009,7 +31009,7 @@
         <v>1</v>
       </c>
       <c r="G1356" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1357" spans="1:7" ht="13">
@@ -31032,7 +31032,7 @@
         <v>0</v>
       </c>
       <c r="G1357" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1358" spans="1:7" ht="13">
@@ -31124,7 +31124,7 @@
         <v>2</v>
       </c>
       <c r="G1361" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1362" spans="1:7" ht="13">
@@ -31147,7 +31147,7 @@
         <v>11</v>
       </c>
       <c r="G1362" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1363" spans="1:7" ht="13">
@@ -31170,7 +31170,7 @@
         <v>2</v>
       </c>
       <c r="G1363" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364" spans="1:7" ht="13">
@@ -31193,7 +31193,7 @@
         <v>21</v>
       </c>
       <c r="G1364" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365" spans="1:7" ht="13">
@@ -31285,7 +31285,7 @@
         <v>0</v>
       </c>
       <c r="G1368" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:7" ht="13">
@@ -31354,7 +31354,7 @@
         <v>1</v>
       </c>
       <c r="G1371" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:7" ht="13">
@@ -31469,7 +31469,7 @@
         <v>31</v>
       </c>
       <c r="G1376" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1377" spans="1:7" ht="13">
@@ -31555,7 +31555,7 @@
         <v>21</v>
       </c>
       <c r="G1380" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1381" spans="1:7" ht="13">
@@ -31601,7 +31601,7 @@
         <v>111</v>
       </c>
       <c r="G1382" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1383" spans="1:7" ht="13">
@@ -31687,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="G1386" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387" spans="1:7" ht="13">
@@ -31813,7 +31813,7 @@
         <v>2</v>
       </c>
       <c r="G1392" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1393" spans="1:7" ht="13">
@@ -31905,7 +31905,7 @@
         <v>0</v>
       </c>
       <c r="G1396" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1397" spans="1:7" ht="13">
@@ -32066,7 +32066,7 @@
         <v>2</v>
       </c>
       <c r="G1403" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1404" spans="1:7" ht="13">
@@ -32175,7 +32175,7 @@
         <v>0</v>
       </c>
       <c r="G1408" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409" spans="1:7" ht="13">
@@ -32290,7 +32290,7 @@
         <v>2</v>
       </c>
       <c r="G1413" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1414" spans="1:7" ht="13">
@@ -32543,7 +32543,7 @@
         <v>1</v>
       </c>
       <c r="G1424" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1425" spans="1:7" ht="13">
@@ -32681,7 +32681,7 @@
         <v>2</v>
       </c>
       <c r="G1430" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1431" spans="1:7" ht="13">
@@ -32704,7 +32704,7 @@
         <v>21</v>
       </c>
       <c r="G1431" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1432" spans="1:7" ht="13">
@@ -32865,7 +32865,7 @@
         <v>1</v>
       </c>
       <c r="G1438" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439" spans="1:7" ht="13">
@@ -32888,7 +32888,7 @@
         <v>2</v>
       </c>
       <c r="G1439" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1440" spans="1:7" ht="13">
@@ -32911,7 +32911,7 @@
         <v>11</v>
       </c>
       <c r="G1440" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441" spans="1:7" ht="13">
@@ -33003,7 +33003,7 @@
         <v>111</v>
       </c>
       <c r="G1444" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:7" ht="13">
@@ -33095,7 +33095,7 @@
         <v>31</v>
       </c>
       <c r="G1448" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1449" spans="1:7" ht="13">
@@ -33204,7 +33204,7 @@
         <v>1</v>
       </c>
       <c r="G1453" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1454" spans="1:7" ht="13">
@@ -33227,7 +33227,7 @@
         <v>1</v>
       </c>
       <c r="G1454" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1455" spans="1:7" ht="13">
@@ -33296,7 +33296,7 @@
         <v>1</v>
       </c>
       <c r="G1457" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458" spans="1:7" ht="13">
@@ -33319,7 +33319,7 @@
         <v>3</v>
       </c>
       <c r="G1458" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1459" spans="1:7" ht="13">
@@ -33428,7 +33428,7 @@
         <v>0</v>
       </c>
       <c r="G1463" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1464" spans="1:7" ht="13">
@@ -33589,7 +33589,7 @@
         <v>111</v>
       </c>
       <c r="G1470" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471" spans="1:7" ht="13">
@@ -33704,7 +33704,7 @@
         <v>0</v>
       </c>
       <c r="G1475" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476" spans="1:7" ht="13">
@@ -33727,7 +33727,7 @@
         <v>1</v>
       </c>
       <c r="G1476" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477" spans="1:7" ht="13">
@@ -33796,7 +33796,7 @@
         <v>21</v>
       </c>
       <c r="G1479" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480" spans="1:7" ht="13">
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="G1481" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1482" spans="1:7" ht="13">
@@ -33865,7 +33865,7 @@
         <v>11</v>
       </c>
       <c r="G1482" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483" spans="1:7" ht="13">
@@ -33888,7 +33888,7 @@
         <v>11</v>
       </c>
       <c r="G1483" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484" spans="1:7" ht="13">
@@ -34158,7 +34158,7 @@
         <v>21</v>
       </c>
       <c r="G1495" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496" spans="1:7" ht="13">
@@ -34244,7 +34244,7 @@
         <v>1</v>
       </c>
       <c r="G1499" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1500" spans="1:7" ht="13">

--- a/半监督.xlsx
+++ b/半监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangchar/Documents/Study/Python应用开发/python-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73F03E-A39B-A342-8E94-F10D71485821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67250F36-19FE-8D42-AB78-5DD6AA4D0FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -11948,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="G503" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:7" ht="13">
@@ -11971,7 +11971,7 @@
         <v>11</v>
       </c>
       <c r="G504" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:7" ht="13">
@@ -12017,7 +12017,7 @@
         <v>3</v>
       </c>
       <c r="G506" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="13">
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="G507" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:7" ht="13">
@@ -12063,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="G508" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:7" ht="13">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="G510" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:7" ht="13">
@@ -12126,7 +12126,7 @@
         <v>11</v>
       </c>
       <c r="G511" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:7" ht="13">
@@ -12189,7 +12189,7 @@
         <v>11</v>
       </c>
       <c r="G514" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:7" ht="13">
@@ -12281,7 +12281,7 @@
         <v>32</v>
       </c>
       <c r="G518" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:7" ht="13">
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="G519" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:7" ht="13">
@@ -12344,7 +12344,7 @@
         <v>2</v>
       </c>
       <c r="G521" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:7" ht="13">
@@ -12413,7 +12413,7 @@
         <v>111</v>
       </c>
       <c r="G524" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:7" ht="13">
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="G525" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:7" ht="13">
@@ -12522,7 +12522,7 @@
         <v>21</v>
       </c>
       <c r="G529" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:7" ht="13">
@@ -12614,7 +12614,7 @@
         <v>11</v>
       </c>
       <c r="G533" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:7" ht="13">
@@ -12660,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:7" ht="13">
@@ -12706,7 +12706,7 @@
         <v>2</v>
       </c>
       <c r="G537" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:7" ht="13">
@@ -12838,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="G543" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:7" ht="13">
@@ -12884,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="G545" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="13">
@@ -12930,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="G547" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="13">
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="13">
@@ -13194,7 +13194,7 @@
         <v>2</v>
       </c>
       <c r="G559" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="13">
@@ -13257,7 +13257,7 @@
         <v>111</v>
       </c>
       <c r="G562" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="13">
@@ -13280,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="G563" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="13">
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="G564" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:7" ht="13">
@@ -13349,7 +13349,7 @@
         <v>21</v>
       </c>
       <c r="G566" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:7" ht="13">
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="G568" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:7" ht="13">
@@ -13412,7 +13412,7 @@
         <v>11</v>
       </c>
       <c r="G569" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:7" ht="13">
@@ -13435,7 +13435,7 @@
         <v>2</v>
       </c>
       <c r="G570" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="13">
@@ -13458,7 +13458,7 @@
         <v>11</v>
       </c>
       <c r="G571" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:7" ht="13">
@@ -13550,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:7" ht="13">
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="G577" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:7" ht="13">
@@ -13665,7 +13665,7 @@
         <v>11</v>
       </c>
       <c r="G580" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:7" ht="13">
@@ -13711,7 +13711,7 @@
         <v>21</v>
       </c>
       <c r="G582" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:7" ht="13">
@@ -13757,7 +13757,7 @@
         <v>11</v>
       </c>
       <c r="G584" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:7" ht="13">
@@ -13820,7 +13820,7 @@
         <v>2</v>
       </c>
       <c r="G587" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:7" ht="13">
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="G588" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:7" ht="13">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="G590" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:7" ht="13">
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="G593" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:7" ht="13">
@@ -14015,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="G596" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:7" ht="13">
@@ -14061,7 +14061,7 @@
         <v>3</v>
       </c>
       <c r="G598" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:7" ht="13">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="G603" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:7" ht="13">
@@ -14314,7 +14314,7 @@
         <v>31</v>
       </c>
       <c r="G609" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:7" ht="13">
@@ -14360,7 +14360,7 @@
         <v>21</v>
       </c>
       <c r="G611" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:7" ht="13">
@@ -14429,7 +14429,7 @@
         <v>21</v>
       </c>
       <c r="G614" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:7" ht="13">
@@ -14486,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="G617" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:7" ht="13">
@@ -14509,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="G618" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619" spans="1:7" ht="13">
@@ -14589,7 +14589,7 @@
         <v>11</v>
       </c>
       <c r="G622" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:7" ht="13">
@@ -14721,7 +14721,7 @@
         <v>21</v>
       </c>
       <c r="G628" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="1:7" ht="13">
@@ -14945,7 +14945,7 @@
         <v>3</v>
       </c>
       <c r="G638" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="13">
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="G639" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:7" ht="13">
@@ -14985,7 +14985,7 @@
         <v>11</v>
       </c>
       <c r="G640" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:7" ht="13">
@@ -15008,7 +15008,7 @@
         <v>3</v>
       </c>
       <c r="G641" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:7" ht="13">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="G648" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:7" ht="13">
@@ -15192,7 +15192,7 @@
         <v>21</v>
       </c>
       <c r="G649" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:7" ht="13">
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="G650" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:7" ht="13">
@@ -15347,7 +15347,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:7" ht="13">
@@ -15393,7 +15393,7 @@
         <v>11</v>
       </c>
       <c r="G658" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:7" ht="13">
@@ -15416,7 +15416,7 @@
         <v>11</v>
       </c>
       <c r="G659" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:7" ht="13">
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="G660" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:7" ht="13">
@@ -15462,7 +15462,7 @@
         <v>111</v>
       </c>
       <c r="G661" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:7" ht="13">
@@ -15485,7 +15485,7 @@
         <v>11</v>
       </c>
       <c r="G662" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:7" ht="13">
@@ -15646,7 +15646,7 @@
         <v>11</v>
       </c>
       <c r="G669" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:7" ht="13">
@@ -15784,7 +15784,7 @@
         <v>2</v>
       </c>
       <c r="G675" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:7" ht="13">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="G676" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:7" ht="13">
@@ -15962,7 +15962,7 @@
         <v>211</v>
       </c>
       <c r="G683" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684" spans="1:7" ht="13">
@@ -15985,7 +15985,7 @@
         <v>111</v>
       </c>
       <c r="G684" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="685" spans="1:7" ht="13">
@@ -16008,7 +16008,7 @@
         <v>111</v>
       </c>
       <c r="G685" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:7" ht="13">
@@ -16054,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="G687" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:7" ht="13">
@@ -16123,7 +16123,7 @@
         <v>31</v>
       </c>
       <c r="G690" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:7" ht="13">
@@ -16347,7 +16347,7 @@
         <v>21</v>
       </c>
       <c r="G700" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:7" ht="13">
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="G701" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:7" ht="13">
@@ -16416,7 +16416,7 @@
         <v>31</v>
       </c>
       <c r="G703" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:7" ht="13">
@@ -16485,7 +16485,7 @@
         <v>11</v>
       </c>
       <c r="G706" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:7" ht="13">
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="G709" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:7" ht="13">
@@ -16623,7 +16623,7 @@
         <v>1</v>
       </c>
       <c r="G712" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:7" ht="13">
@@ -16640,7 +16640,7 @@
         <v>11</v>
       </c>
       <c r="G713" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:7" ht="13">
@@ -16686,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="G715" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:7" ht="13">
@@ -16841,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:7" ht="13">
@@ -16950,7 +16950,7 @@
         <v>11</v>
       </c>
       <c r="G727" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:7" ht="13">
@@ -16996,7 +16996,7 @@
         <v>3</v>
       </c>
       <c r="G729" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:7" ht="13">
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="G731" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:7" ht="13">
@@ -17082,7 +17082,7 @@
         <v>2</v>
       </c>
       <c r="G733" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:7" ht="13">
@@ -17294,7 +17294,7 @@
         <v>21</v>
       </c>
       <c r="G743" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:7" ht="13">
@@ -17340,7 +17340,7 @@
         <v>2</v>
       </c>
       <c r="G745" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:7" ht="13">
@@ -17363,7 +17363,7 @@
         <v>21</v>
       </c>
       <c r="G746" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:7" ht="13">
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="G747" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:7" ht="13">
@@ -17639,7 +17639,7 @@
         <v>21</v>
       </c>
       <c r="G758" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759" spans="1:7" ht="13">
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="G759" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:7" ht="13">
@@ -17748,7 +17748,7 @@
         <v>11</v>
       </c>
       <c r="G763" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:7" ht="13">
@@ -17817,7 +17817,7 @@
         <v>2</v>
       </c>
       <c r="G766" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:7" ht="13">
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="G768" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:7" ht="13">
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="G771" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:7" ht="13">
@@ -17978,7 +17978,7 @@
         <v>21</v>
       </c>
       <c r="G773" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:7" ht="13">
@@ -18024,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:7" ht="13">
@@ -18093,7 +18093,7 @@
         <v>11</v>
       </c>
       <c r="G778" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:7" ht="13">
@@ -18162,7 +18162,7 @@
         <v>0</v>
       </c>
       <c r="G781" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:7" ht="13">
@@ -18248,7 +18248,7 @@
         <v>2</v>
       </c>
       <c r="G785" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:7" ht="13">
@@ -18294,7 +18294,7 @@
         <v>31</v>
       </c>
       <c r="G787" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:7" ht="13">
@@ -18340,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="G789" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:7" ht="13">
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="G795" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:7" ht="13">
@@ -18541,7 +18541,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:7" ht="13">
@@ -18633,7 +18633,7 @@
         <v>21</v>
       </c>
       <c r="G802" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="803" spans="1:7" ht="13">
@@ -18656,7 +18656,7 @@
         <v>21</v>
       </c>
       <c r="G803" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:7" ht="13">
@@ -18725,7 +18725,7 @@
         <v>21</v>
       </c>
       <c r="G806" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="807" spans="1:7" ht="13">
@@ -18748,7 +18748,7 @@
         <v>21</v>
       </c>
       <c r="G807" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:7" ht="13">
@@ -18805,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="G810" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:7" ht="13">
@@ -19029,7 +19029,7 @@
         <v>0</v>
       </c>
       <c r="G820" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:7" ht="13">
@@ -19075,7 +19075,7 @@
         <v>11</v>
       </c>
       <c r="G822" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:7" ht="13">
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="G823" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:7" ht="13">
@@ -19115,7 +19115,7 @@
         <v>11</v>
       </c>
       <c r="G824" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:7" ht="13">
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="G829" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:7" ht="13">
@@ -19362,7 +19362,7 @@
         <v>21</v>
       </c>
       <c r="G835" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:7" ht="13">
@@ -19385,7 +19385,7 @@
         <v>0</v>
       </c>
       <c r="G836" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:7" ht="13">
@@ -19425,7 +19425,7 @@
         <v>11</v>
       </c>
       <c r="G838" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:7" ht="13">
@@ -19471,7 +19471,7 @@
         <v>21</v>
       </c>
       <c r="G840" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="841" spans="1:7" ht="13">
@@ -19563,7 +19563,7 @@
         <v>11</v>
       </c>
       <c r="G844" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:7" ht="13">
@@ -19626,7 +19626,7 @@
         <v>32</v>
       </c>
       <c r="G847" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:7" ht="13">
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
       <c r="G855" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:7" ht="13">
@@ -19850,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:7" ht="13">
@@ -19873,7 +19873,7 @@
         <v>21</v>
       </c>
       <c r="G858" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:7" ht="13">
@@ -19936,7 +19936,7 @@
         <v>111</v>
       </c>
       <c r="G861" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="862" spans="1:7" ht="13">
@@ -20051,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="G866" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="867" spans="1:7" ht="13">
@@ -20074,7 +20074,7 @@
         <v>3</v>
       </c>
       <c r="G867" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:7" ht="13">
@@ -20097,7 +20097,7 @@
         <v>3</v>
       </c>
       <c r="G868" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:7" ht="13">
@@ -20281,7 +20281,7 @@
         <v>21</v>
       </c>
       <c r="G876" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:7" ht="13">
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:7" ht="13">
@@ -20505,7 +20505,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:7" ht="13">
@@ -20568,7 +20568,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:7" ht="13">
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="G890" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:7" ht="13">
@@ -20660,7 +20660,7 @@
         <v>21</v>
       </c>
       <c r="G893" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:7" ht="13">
@@ -20683,7 +20683,7 @@
         <v>3</v>
       </c>
       <c r="G894" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:7" ht="13">
@@ -20844,7 +20844,7 @@
         <v>3</v>
       </c>
       <c r="G901" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:7" ht="13">
@@ -20890,7 +20890,7 @@
         <v>2</v>
       </c>
       <c r="G903" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:7" ht="13">
@@ -20936,7 +20936,7 @@
         <v>11</v>
       </c>
       <c r="G905" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:7" ht="13">
@@ -20959,7 +20959,7 @@
         <v>21</v>
       </c>
       <c r="G906" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="907" spans="1:7" ht="13">
@@ -21028,7 +21028,7 @@
         <v>3</v>
       </c>
       <c r="G909" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:7" ht="13">
@@ -21074,7 +21074,7 @@
         <v>21</v>
       </c>
       <c r="G911" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:7" ht="13">
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="G913" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:7" ht="13">
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="G918" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:7" ht="13">
@@ -21309,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="G922" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:7" ht="13">
@@ -21355,7 +21355,7 @@
         <v>21</v>
       </c>
       <c r="G924" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925" spans="1:7" ht="13">
@@ -21441,7 +21441,7 @@
         <v>11</v>
       </c>
       <c r="G928" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:7" ht="13">
@@ -21510,7 +21510,7 @@
         <v>2</v>
       </c>
       <c r="G931" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:7" ht="13">
@@ -21912,7 +21912,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:7" ht="13">
@@ -22015,7 +22015,7 @@
         <v>22</v>
       </c>
       <c r="G954" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="955" spans="1:7" ht="13">
@@ -22107,7 +22107,7 @@
         <v>31</v>
       </c>
       <c r="G958" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959" spans="1:7" ht="13">
@@ -22130,7 +22130,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:7" ht="13">
@@ -22153,7 +22153,7 @@
         <v>21</v>
       </c>
       <c r="G960" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:7" ht="13">
@@ -22291,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="G966" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:7" ht="13">
@@ -22406,7 +22406,7 @@
         <v>11</v>
       </c>
       <c r="G971" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="972" spans="1:7" ht="13">
@@ -22475,7 +22475,7 @@
         <v>21</v>
       </c>
       <c r="G974" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:7" ht="13">
@@ -22653,7 +22653,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:7" ht="13">
@@ -22676,7 +22676,7 @@
         <v>21</v>
       </c>
       <c r="G983" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:7" ht="13">
@@ -22831,7 +22831,7 @@
         <v>2</v>
       </c>
       <c r="G990" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:7" ht="13">
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="G995" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:7" ht="13">
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="G997" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:7" ht="13">
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="G999" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:7" ht="13">
@@ -23043,7 +23043,7 @@
         <v>111</v>
       </c>
       <c r="G1000" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1001" spans="1:7" ht="13">
@@ -23066,7 +23066,7 @@
         <v>21</v>
       </c>
       <c r="G1001" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:7" ht="13">
@@ -23227,7 +23227,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:7" ht="13">
@@ -23399,7 +23399,7 @@
         <v>2</v>
       </c>
       <c r="G1016" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:7" ht="13">
@@ -23537,7 +23537,7 @@
         <v>1</v>
       </c>
       <c r="G1022" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:7" ht="13">
@@ -23646,7 +23646,7 @@
         <v>11</v>
       </c>
       <c r="G1027" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:7" ht="13">
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="G1028" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:7" ht="13">
@@ -23715,7 +23715,7 @@
         <v>3</v>
       </c>
       <c r="G1030" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:7" ht="13">
@@ -23738,7 +23738,7 @@
         <v>1</v>
       </c>
       <c r="G1031" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:7" ht="13">
@@ -23761,7 +23761,7 @@
         <v>21</v>
       </c>
       <c r="G1032" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1033" spans="1:7" ht="13">
@@ -23853,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="G1036" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:7" ht="13">
@@ -23916,7 +23916,7 @@
         <v>0</v>
       </c>
       <c r="G1039" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:7" ht="13">
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="G1042" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:7" ht="13">
@@ -24002,7 +24002,7 @@
         <v>21</v>
       </c>
       <c r="G1043" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:7" ht="13">
@@ -24042,7 +24042,7 @@
         <v>11</v>
       </c>
       <c r="G1045" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:7" ht="13">
@@ -24134,7 +24134,7 @@
         <v>2</v>
       </c>
       <c r="G1049" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:7" ht="13">
@@ -24249,7 +24249,7 @@
         <v>0</v>
       </c>
       <c r="G1054" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:7" ht="13">
@@ -24295,7 +24295,7 @@
         <v>21</v>
       </c>
       <c r="G1056" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:7" ht="13">
@@ -24364,7 +24364,7 @@
         <v>21</v>
       </c>
       <c r="G1059" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:7" ht="13">
@@ -24387,7 +24387,7 @@
         <v>11</v>
       </c>
       <c r="G1060" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1061" spans="1:7" ht="13">
@@ -24404,7 +24404,7 @@
         <v>1</v>
       </c>
       <c r="G1061" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:7" ht="13">
@@ -24427,7 +24427,7 @@
         <v>1</v>
       </c>
       <c r="G1062" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:7" ht="13">
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="G1064" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:7" ht="13">
@@ -24530,7 +24530,7 @@
         <v>11</v>
       </c>
       <c r="G1067" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:7" ht="13">
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="G1068" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:7" ht="13">
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="G1069" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:7" ht="13">
@@ -24886,7 +24886,7 @@
         <v>11</v>
       </c>
       <c r="G1083" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:7" ht="13">
@@ -24932,7 +24932,7 @@
         <v>32</v>
       </c>
       <c r="G1085" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:7" ht="13">
@@ -25024,7 +25024,7 @@
         <v>0</v>
       </c>
       <c r="G1089" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:7" ht="13">
@@ -25070,7 +25070,7 @@
         <v>31</v>
       </c>
       <c r="G1091" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:7" ht="13">
@@ -25093,7 +25093,7 @@
         <v>2</v>
       </c>
       <c r="G1092" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:7" ht="13">
@@ -25116,7 +25116,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:7" ht="13">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="G1095" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:7" ht="13">
@@ -25185,7 +25185,7 @@
         <v>2</v>
       </c>
       <c r="G1096" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:7" ht="13">
@@ -25208,7 +25208,7 @@
         <v>3</v>
       </c>
       <c r="G1097" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:7" ht="13">
@@ -25300,7 +25300,7 @@
         <v>1</v>
       </c>
       <c r="G1101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:7" ht="13">
@@ -25380,7 +25380,7 @@
         <v>2</v>
       </c>
       <c r="G1105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:7" ht="13">
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="G1110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:7" ht="13">
@@ -25512,7 +25512,7 @@
         <v>11</v>
       </c>
       <c r="G1111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:7" ht="13">
@@ -25529,7 +25529,7 @@
         <v>111</v>
       </c>
       <c r="G1112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:7" ht="13">
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
       <c r="G1114" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:7" ht="13">
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="G1117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:7" ht="13">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="G1118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:7" ht="13">
@@ -25845,7 +25845,7 @@
         <v>2</v>
       </c>
       <c r="G1126" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:7" ht="13">
@@ -25937,7 +25937,7 @@
         <v>0</v>
       </c>
       <c r="G1130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:7" ht="13">
@@ -25977,7 +25977,7 @@
         <v>1</v>
       </c>
       <c r="G1132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:7" ht="13">
@@ -26000,7 +26000,7 @@
         <v>1</v>
       </c>
       <c r="G1133" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:7" ht="13">
@@ -26046,7 +26046,7 @@
         <v>21</v>
       </c>
       <c r="G1135" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1136" spans="1:7" ht="13">
@@ -26092,7 +26092,7 @@
         <v>1</v>
       </c>
       <c r="G1137" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:7" ht="13">
@@ -26161,7 +26161,7 @@
         <v>11</v>
       </c>
       <c r="G1140" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:7" ht="13">
@@ -26287,7 +26287,7 @@
         <v>11</v>
       </c>
       <c r="G1146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="13">
@@ -26333,7 +26333,7 @@
         <v>3</v>
       </c>
       <c r="G1148" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:7" ht="13">
@@ -26379,7 +26379,7 @@
         <v>11</v>
       </c>
       <c r="G1150" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:7" ht="13">
@@ -26448,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="G1153" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:7" ht="13">
@@ -26626,7 +26626,7 @@
         <v>1</v>
       </c>
       <c r="G1161" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:7" ht="13">
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="G1162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:7" ht="13">
@@ -26718,7 +26718,7 @@
         <v>31</v>
       </c>
       <c r="G1165" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:7" ht="13">
@@ -26741,7 +26741,7 @@
         <v>2</v>
       </c>
       <c r="G1166" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:7" ht="13">
@@ -26804,7 +26804,7 @@
         <v>11</v>
       </c>
       <c r="G1169" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:7" ht="13">
@@ -26827,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="G1170" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:7" ht="13">
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="G1171" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:7" ht="13">
@@ -27074,7 +27074,7 @@
         <v>1</v>
       </c>
       <c r="G1181" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:7" ht="13">
@@ -27120,7 +27120,7 @@
         <v>1</v>
       </c>
       <c r="G1183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:7" ht="13">
@@ -27166,7 +27166,7 @@
         <v>22</v>
       </c>
       <c r="G1185" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:7" ht="13">
@@ -27189,7 +27189,7 @@
         <v>1</v>
       </c>
       <c r="G1186" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:7" ht="13">
@@ -27258,7 +27258,7 @@
         <v>3</v>
       </c>
       <c r="G1189" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:7" ht="13">
@@ -27396,7 +27396,7 @@
         <v>3</v>
       </c>
       <c r="G1195" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:7" ht="13">
@@ -27574,7 +27574,7 @@
         <v>2</v>
       </c>
       <c r="G1203" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:7" ht="13">
@@ -27677,7 +27677,7 @@
         <v>21</v>
       </c>
       <c r="G1208" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:7" ht="13">
@@ -27717,7 +27717,7 @@
         <v>0</v>
       </c>
       <c r="G1210" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:7" ht="13">
@@ -27763,7 +27763,7 @@
         <v>11</v>
       </c>
       <c r="G1212" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:7" ht="13">
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="G1214" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:7" ht="13">
@@ -27832,7 +27832,7 @@
         <v>2</v>
       </c>
       <c r="G1215" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:7" ht="13">
@@ -27981,7 +27981,7 @@
         <v>1</v>
       </c>
       <c r="G1222" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:7" ht="13">
@@ -28067,7 +28067,7 @@
         <v>21</v>
       </c>
       <c r="G1226" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:7" ht="13">
@@ -28159,7 +28159,7 @@
         <v>211</v>
       </c>
       <c r="G1230" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231" spans="1:7" ht="13">
@@ -28182,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="G1231" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:7" ht="13">
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="G1235" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:7" ht="13">
@@ -28389,7 +28389,7 @@
         <v>1</v>
       </c>
       <c r="G1240" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:7" ht="13">
@@ -28412,7 +28412,7 @@
         <v>3</v>
       </c>
       <c r="G1241" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:7" ht="13">
@@ -28504,7 +28504,7 @@
         <v>0</v>
       </c>
       <c r="G1245" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:7" ht="13">
@@ -28596,7 +28596,7 @@
         <v>0</v>
       </c>
       <c r="G1249" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:7" ht="13">
@@ -28728,7 +28728,7 @@
         <v>111</v>
       </c>
       <c r="G1255" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1256" spans="1:7" ht="13">
@@ -28820,7 +28820,7 @@
         <v>0</v>
       </c>
       <c r="G1259" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:7" ht="13">
@@ -28866,7 +28866,7 @@
         <v>31</v>
       </c>
       <c r="G1261" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:7" ht="13">
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="G1266" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:7" ht="13">
@@ -28998,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="G1267" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:7" ht="13">
@@ -29084,7 +29084,7 @@
         <v>1</v>
       </c>
       <c r="G1271" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:7" ht="13">
@@ -29107,7 +29107,7 @@
         <v>31</v>
       </c>
       <c r="G1272" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:7" ht="13">
@@ -29130,7 +29130,7 @@
         <v>21</v>
       </c>
       <c r="G1273" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1274" spans="1:7" ht="13">
@@ -29176,7 +29176,7 @@
         <v>11</v>
       </c>
       <c r="G1275" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:7" ht="13">
@@ -29199,7 +29199,7 @@
         <v>11</v>
       </c>
       <c r="G1276" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:7" ht="13">
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="G1281" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:7" ht="13">
@@ -29429,7 +29429,7 @@
         <v>111</v>
       </c>
       <c r="G1286" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:7" ht="13">
@@ -29475,7 +29475,7 @@
         <v>3</v>
       </c>
       <c r="G1288" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:7" ht="13">
@@ -29498,7 +29498,7 @@
         <v>1</v>
       </c>
       <c r="G1289" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290" spans="1:7" ht="13">
@@ -29567,7 +29567,7 @@
         <v>11</v>
       </c>
       <c r="G1292" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1293" spans="1:7" ht="13">
@@ -29636,7 +29636,7 @@
         <v>1</v>
       </c>
       <c r="G1295" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:7" ht="13">
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="G1296" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:7" ht="13">
@@ -29722,7 +29722,7 @@
         <v>0</v>
       </c>
       <c r="G1299" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:7" ht="13">
@@ -29745,7 +29745,7 @@
         <v>21</v>
       </c>
       <c r="G1300" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1301" spans="1:7" ht="13">
@@ -29814,7 +29814,7 @@
         <v>21</v>
       </c>
       <c r="G1303" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1304" spans="1:7" ht="13">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="G1304" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:7" ht="13">
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="G1308" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309" spans="1:7" ht="13">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="G1311" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:7" ht="13">
@@ -30084,7 +30084,7 @@
         <v>3</v>
       </c>
       <c r="G1315" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:7" ht="13">
@@ -30107,7 +30107,7 @@
         <v>1</v>
       </c>
       <c r="G1316" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:7" ht="13">
@@ -30130,7 +30130,7 @@
         <v>21</v>
       </c>
       <c r="G1317" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:7" ht="13">
@@ -30337,7 +30337,7 @@
         <v>1</v>
       </c>
       <c r="G1326" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:7" ht="13">
@@ -30492,7 +30492,7 @@
         <v>3</v>
       </c>
       <c r="G1333" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1334" spans="1:7" ht="13">
@@ -30509,7 +30509,7 @@
         <v>1</v>
       </c>
       <c r="G1334" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:7" ht="13">
@@ -30555,7 +30555,7 @@
         <v>21</v>
       </c>
       <c r="G1336" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1337" spans="1:7" ht="13">
@@ -30578,7 +30578,7 @@
         <v>21</v>
       </c>
       <c r="G1337" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1338" spans="1:7" ht="13">
@@ -30595,7 +30595,7 @@
         <v>0</v>
       </c>
       <c r="G1338" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:7" ht="13">
@@ -30664,7 +30664,7 @@
         <v>21</v>
       </c>
       <c r="G1341" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1342" spans="1:7" ht="13">
@@ -30733,7 +30733,7 @@
         <v>1</v>
       </c>
       <c r="G1344" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1345" spans="1:7" ht="13">
@@ -30756,7 +30756,7 @@
         <v>21</v>
       </c>
       <c r="G1345" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:7" ht="13">
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="G1346" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:7" ht="13">
@@ -30825,7 +30825,7 @@
         <v>11</v>
       </c>
       <c r="G1348" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349" spans="1:7" ht="13">
@@ -30848,7 +30848,7 @@
         <v>0</v>
       </c>
       <c r="G1349" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350" spans="1:7" ht="13">
@@ -30871,7 +30871,7 @@
         <v>31</v>
       </c>
       <c r="G1350" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1351" spans="1:7" ht="13">
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="G1351" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1352" spans="1:7" ht="13">
@@ -30940,7 +30940,7 @@
         <v>21</v>
       </c>
       <c r="G1353" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1354" spans="1:7" ht="13">
@@ -30963,7 +30963,7 @@
         <v>11</v>
       </c>
       <c r="G1354" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:7" ht="13">
@@ -30986,7 +30986,7 @@
         <v>21</v>
       </c>
       <c r="G1355" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356" spans="1:7" ht="13">
@@ -31009,7 +31009,7 @@
         <v>1</v>
       </c>
       <c r="G1356" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:7" ht="13">
@@ -31032,7 +31032,7 @@
         <v>0</v>
       </c>
       <c r="G1357" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:7" ht="13">
@@ -31124,7 +31124,7 @@
         <v>2</v>
       </c>
       <c r="G1361" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1362" spans="1:7" ht="13">
@@ -31147,7 +31147,7 @@
         <v>11</v>
       </c>
       <c r="G1362" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:7" ht="13">
@@ -31193,7 +31193,7 @@
         <v>21</v>
       </c>
       <c r="G1364" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365" spans="1:7" ht="13">
@@ -31492,7 +31492,7 @@
         <v>1</v>
       </c>
       <c r="G1377" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1378" spans="1:7" ht="13">
@@ -31555,7 +31555,7 @@
         <v>21</v>
       </c>
       <c r="G1380" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1381" spans="1:7" ht="13">
@@ -31601,7 +31601,7 @@
         <v>111</v>
       </c>
       <c r="G1382" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1383" spans="1:7" ht="13">
@@ -31813,7 +31813,7 @@
         <v>2</v>
       </c>
       <c r="G1392" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:7" ht="13">
@@ -31951,7 +31951,7 @@
         <v>1</v>
       </c>
       <c r="G1398" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399" spans="1:7" ht="13">
@@ -32043,7 +32043,7 @@
         <v>0</v>
       </c>
       <c r="G1402" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403" spans="1:7" ht="13">
@@ -32066,7 +32066,7 @@
         <v>2</v>
       </c>
       <c r="G1403" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404" spans="1:7" ht="13">
@@ -32089,7 +32089,7 @@
         <v>1</v>
       </c>
       <c r="G1404" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" spans="1:7" ht="13">
@@ -32152,7 +32152,7 @@
         <v>31</v>
       </c>
       <c r="G1407" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1408" spans="1:7" ht="13">
@@ -32198,7 +32198,7 @@
         <v>211</v>
       </c>
       <c r="G1409" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1410" spans="1:7" ht="13">
@@ -32290,7 +32290,7 @@
         <v>2</v>
       </c>
       <c r="G1413" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414" spans="1:7" ht="13">
@@ -32405,7 +32405,7 @@
         <v>1</v>
       </c>
       <c r="G1418" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1419" spans="1:7" ht="13">
@@ -32474,7 +32474,7 @@
         <v>1</v>
       </c>
       <c r="G1421" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:7" ht="13">
@@ -32543,7 +32543,7 @@
         <v>1</v>
       </c>
       <c r="G1424" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425" spans="1:7" ht="13">
@@ -32612,7 +32612,7 @@
         <v>0</v>
       </c>
       <c r="G1427" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428" spans="1:7" ht="13">
@@ -32681,7 +32681,7 @@
         <v>2</v>
       </c>
       <c r="G1430" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431" spans="1:7" ht="13">
@@ -32750,7 +32750,7 @@
         <v>1</v>
       </c>
       <c r="G1433" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434" spans="1:7" ht="13">
@@ -32865,7 +32865,7 @@
         <v>1</v>
       </c>
       <c r="G1438" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1439" spans="1:7" ht="13">
@@ -32888,7 +32888,7 @@
         <v>2</v>
       </c>
       <c r="G1439" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:7" ht="13">
@@ -33003,7 +33003,7 @@
         <v>111</v>
       </c>
       <c r="G1444" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1445" spans="1:7" ht="13">
@@ -33095,7 +33095,7 @@
         <v>31</v>
       </c>
       <c r="G1448" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1449" spans="1:7" ht="13">
@@ -33204,7 +33204,7 @@
         <v>1</v>
       </c>
       <c r="G1453" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1454" spans="1:7" ht="13">
@@ -33227,7 +33227,7 @@
         <v>1</v>
       </c>
       <c r="G1454" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455" spans="1:7" ht="13">
@@ -33250,7 +33250,7 @@
         <v>21</v>
       </c>
       <c r="G1455" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1456" spans="1:7" ht="13">
@@ -33273,7 +33273,7 @@
         <v>0</v>
       </c>
       <c r="G1456" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1457" spans="1:7" ht="13">
@@ -33428,7 +33428,7 @@
         <v>0</v>
       </c>
       <c r="G1463" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1464" spans="1:7" ht="13">
@@ -33474,7 +33474,7 @@
         <v>2</v>
       </c>
       <c r="G1465" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466" spans="1:7" ht="13">
@@ -33497,7 +33497,7 @@
         <v>2</v>
       </c>
       <c r="G1466" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467" spans="1:7" ht="13">
@@ -33566,7 +33566,7 @@
         <v>11</v>
       </c>
       <c r="G1469" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470" spans="1:7" ht="13">
@@ -33589,7 +33589,7 @@
         <v>111</v>
       </c>
       <c r="G1470" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1471" spans="1:7" ht="13">
@@ -33727,7 +33727,7 @@
         <v>1</v>
       </c>
       <c r="G1476" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1477" spans="1:7" ht="13">
@@ -33773,7 +33773,7 @@
         <v>11</v>
       </c>
       <c r="G1478" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1479" spans="1:7" ht="13">
@@ -33796,7 +33796,7 @@
         <v>21</v>
       </c>
       <c r="G1479" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1480" spans="1:7" ht="13">
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="G1481" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482" spans="1:7" ht="13">
@@ -34072,7 +34072,7 @@
         <v>0</v>
       </c>
       <c r="G1491" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492" spans="1:7" ht="13">
@@ -34244,7 +34244,7 @@
         <v>1</v>
       </c>
       <c r="G1499" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500" spans="1:7" ht="13">

--- a/半监督.xlsx
+++ b/半监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangchar/Documents/Study/Python应用开发/python-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1048DA9-D66C-BE4E-BEEB-820F97225622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C87E2FD-8223-E841-B30A-8A168DC5206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="680" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マカ錬金 幽玄 -ZH" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2:G1500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -12266,7 +12266,7 @@
         <v>3</v>
       </c>
       <c r="G517" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:7" ht="13">
@@ -12668,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:7" ht="13">
@@ -12823,7 +12823,7 @@
         <v>11</v>
       </c>
       <c r="G542" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:7" ht="13">
@@ -14574,7 +14574,7 @@
         <v>11</v>
       </c>
       <c r="G621" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:7" ht="13">
@@ -14597,7 +14597,7 @@
         <v>11</v>
       </c>
       <c r="G622" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:7" ht="13">
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="G631" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:7" ht="13">
@@ -14953,7 +14953,7 @@
         <v>3</v>
       </c>
       <c r="G638" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="13">
@@ -14993,7 +14993,7 @@
         <v>11</v>
       </c>
       <c r="G640" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:7" ht="13">
@@ -15016,7 +15016,7 @@
         <v>3</v>
       </c>
       <c r="G641" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:7" ht="13">
@@ -15131,7 +15131,7 @@
         <v>3</v>
       </c>
       <c r="G646" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:7" ht="13">
@@ -16016,7 +16016,7 @@
         <v>111</v>
       </c>
       <c r="G685" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:7" ht="13">
@@ -16539,7 +16539,7 @@
         <v>111</v>
       </c>
       <c r="G708" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:7" ht="13">
@@ -16763,7 +16763,7 @@
         <v>2</v>
       </c>
       <c r="G718" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:7" ht="13">
@@ -16958,7 +16958,7 @@
         <v>11</v>
       </c>
       <c r="G727" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:7" ht="13">
@@ -18572,7 +18572,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:7" ht="13">
@@ -20645,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="G892" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:7" ht="13">
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="G940" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:7" ht="13">
@@ -21771,7 +21771,7 @@
         <v>3</v>
       </c>
       <c r="G942" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:7" ht="13">
@@ -21977,7 +21977,7 @@
         <v>1</v>
       </c>
       <c r="G952" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:7" ht="13">
@@ -22959,7 +22959,7 @@
         <v>11</v>
       </c>
       <c r="G996" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:7" ht="13">
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:7" ht="13">
@@ -23051,7 +23051,7 @@
         <v>111</v>
       </c>
       <c r="G1000" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1001" spans="1:7" ht="13">
@@ -23166,7 +23166,7 @@
         <v>2</v>
       </c>
       <c r="G1005" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:7" ht="13">
@@ -23723,7 +23723,7 @@
         <v>3</v>
       </c>
       <c r="G1030" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:7" ht="13">
@@ -23838,7 +23838,7 @@
         <v>11</v>
       </c>
       <c r="G1035" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:7" ht="13">
@@ -23924,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="G1039" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:7" ht="13">
@@ -24825,7 +24825,7 @@
         <v>3</v>
       </c>
       <c r="G1080" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:7" ht="13">
@@ -25101,7 +25101,7 @@
         <v>2</v>
       </c>
       <c r="G1092" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:7" ht="13">
@@ -25216,7 +25216,7 @@
         <v>3</v>
       </c>
       <c r="G1097" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:7" ht="13">
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="G1118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:7" ht="13">
@@ -25807,7 +25807,7 @@
         <v>3</v>
       </c>
       <c r="G1124" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:7" ht="13">
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="G1139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:7" ht="13">
@@ -26186,7 +26186,7 @@
         <v>11</v>
       </c>
       <c r="G1141" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:7" ht="13">
@@ -26232,7 +26232,7 @@
         <v>3</v>
       </c>
       <c r="G1143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:7" ht="13">
@@ -26657,7 +26657,7 @@
         <v>0</v>
       </c>
       <c r="G1162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:7" ht="13">
@@ -27128,7 +27128,7 @@
         <v>1</v>
       </c>
       <c r="G1183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:7" ht="13">
@@ -27151,7 +27151,7 @@
         <v>11</v>
       </c>
       <c r="G1184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:7" ht="13">
@@ -27266,7 +27266,7 @@
         <v>3</v>
       </c>
       <c r="G1189" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:7" ht="13">
@@ -27473,7 +27473,7 @@
         <v>11</v>
       </c>
       <c r="G1198" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:7" ht="13">
@@ -27582,7 +27582,7 @@
         <v>2</v>
       </c>
       <c r="G1203" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:7" ht="13">
@@ -27972,7 +27972,7 @@
         <v>11</v>
       </c>
       <c r="G1221" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:7" ht="13">
@@ -28052,7 +28052,7 @@
         <v>11</v>
       </c>
       <c r="G1225" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:7" ht="13">
@@ -28213,7 +28213,7 @@
         <v>3</v>
       </c>
       <c r="G1232" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:7" ht="13">
@@ -28736,7 +28736,7 @@
         <v>111</v>
       </c>
       <c r="G1255" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1256" spans="1:7" ht="13">
@@ -28805,7 +28805,7 @@
         <v>11</v>
       </c>
       <c r="G1258" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:7" ht="13">
@@ -29914,7 +29914,7 @@
         <v>11</v>
       </c>
       <c r="G1307" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:7" ht="13">
@@ -30023,7 +30023,7 @@
         <v>3</v>
       </c>
       <c r="G1312" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:7" ht="13">
@@ -30092,7 +30092,7 @@
         <v>3</v>
       </c>
       <c r="G1315" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:7" ht="13">
@@ -30115,7 +30115,7 @@
         <v>1</v>
       </c>
       <c r="G1316" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:7" ht="13">
@@ -30368,7 +30368,7 @@
         <v>3</v>
       </c>
       <c r="G1327" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:7" ht="13">
@@ -30718,7 +30718,7 @@
         <v>111</v>
       </c>
       <c r="G1343" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1344" spans="1:7" ht="13">
@@ -32344,7 +32344,7 @@
         <v>111</v>
       </c>
       <c r="G1415" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:7" ht="13">
@@ -32528,7 +32528,7 @@
         <v>0</v>
       </c>
       <c r="G1423" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424" spans="1:7" ht="13">
@@ -33011,7 +33011,7 @@
         <v>111</v>
       </c>
       <c r="G1444" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1445" spans="1:7" ht="13">
@@ -33597,7 +33597,7 @@
         <v>111</v>
       </c>
       <c r="G1470" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1471" spans="1:7" ht="13">
@@ -33781,7 +33781,7 @@
         <v>11</v>
       </c>
       <c r="G1478" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1479" spans="1:7" ht="13">
